--- a/数据安全/数据安全治理项目.xlsx
+++ b/数据安全/数据安全治理项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="14630" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="工作安排表" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>6月1号~6月18号</t>
   </si>
   <si>
-    <t>6月29日友胜验收通过</t>
+    <t>6月29日验收通过</t>
   </si>
   <si>
     <t>保密电话功能实现系统对接</t>
@@ -90,13 +90,13 @@
     <t>微信批量添加功能实现系统化</t>
   </si>
   <si>
-    <t>用户中台-王谦老师这边再开发中</t>
+    <t>用户中台-老师这边再开发中</t>
   </si>
   <si>
     <t>物流平台对接集团用户中台</t>
   </si>
   <si>
-    <t>用户中台-胡罡刚（暂无计划、持续跟进）</t>
+    <t>用户中台-（暂无计划、持续跟进）</t>
   </si>
   <si>
     <t>接入用户中心的系统认领和数据保护</t>
@@ -114,7 +114,7 @@
     <t>后台系统统一接入集团SSO认证</t>
   </si>
   <si>
-    <t>梳理跟进培优业务平台侧系统</t>
+    <t>梳理跟进业务平台侧系统</t>
   </si>
   <si>
     <t>业务梳理出11系统，1个已下线，1个即将下线，5个开发类工具仅1-2人使用要求加验证码，剩余4个系统完成接入</t>
@@ -194,7 +194,7 @@
     </r>
   </si>
   <si>
-    <t>李金威老师确认过</t>
+    <t>确认过</t>
   </si>
   <si>
     <t>Ucenter用户信息数据清洗不留存</t>
@@ -233,7 +233,7 @@
     <t>物流系统导数据场景考虑云桌面方案</t>
   </si>
   <si>
-    <t>7月第一周和王飞老师沟通当前现状</t>
+    <t>沟通当前现状</t>
   </si>
   <si>
     <t>针对导出数据使用的场景安排云桌面方案讨论</t>
@@ -242,22 +242,22 @@
     <t>方案调研</t>
   </si>
   <si>
-    <t>网校用户数据库中手机号码清洗不留存</t>
-  </si>
-  <si>
-    <t>马远远老师</t>
+    <t>用户数据库中手机号码清洗不留存</t>
+  </si>
+  <si>
+    <t>老师</t>
   </si>
   <si>
     <t>建议表字段保留，内容脱敏等10月能够完成</t>
   </si>
   <si>
-    <t>login.xueersi.com请求日志中明文手机号码加密</t>
+    <t>请求日志中明文手机号码加密</t>
   </si>
   <si>
     <t>计划8月31日上线</t>
   </si>
   <si>
-    <t>网校核心研发产品、HR岗位安装DLP</t>
+    <t>核心研发产品、HR岗位安装DLP</t>
   </si>
   <si>
     <t>办公电脑的问题</t>
@@ -296,7 +296,7 @@
     <t>主账户AK的清理、不活跃的子账户管理制度</t>
   </si>
   <si>
-    <t>好未来风险评估数据0517.xlsx</t>
+    <t>风险评估数据0517.xlsx</t>
   </si>
   <si>
     <t>完成云资产访问安全管理规范初稿</t>
@@ -401,11 +401,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -455,10 +455,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,8 +477,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -485,15 +577,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,7 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,92 +601,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,31 +646,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,151 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,29 +864,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,32 +894,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,163 +920,194 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1517,11 +1517,11 @@
   <sheetPr/>
   <dimension ref="A1:S204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
@@ -1539,7 +1539,7 @@
     <col min="14" max="19" width="10.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.6" spans="1:13">
+    <row r="1" ht="33.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" ht="21.6" spans="1:13">
+    <row r="2" ht="24" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1636,6 @@
         <v>18</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="19" t="s">
@@ -1645,7 +1644,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" ht="43.2" spans="1:13">
+    <row r="5" ht="48" spans="1:13">
       <c r="A5" s="8"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1657,7 +1656,6 @@
         <v>21</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5"/>
       <c r="I5" s="20">
         <v>1</v>
       </c>
@@ -1680,7 +1678,6 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="19" t="s">
@@ -1699,7 +1696,6 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="22" t="s">
@@ -1718,7 +1714,6 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="21" t="s">
@@ -1737,7 +1732,6 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="22" t="s">
@@ -1746,7 +1740,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" ht="43.2" spans="1:13">
+    <row r="10" ht="48" spans="1:13">
       <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1756,7 +1750,6 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="22" t="s">
@@ -1767,7 +1760,7 @@
       </c>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" ht="97.2" spans="1:19">
+    <row r="11" ht="108" spans="1:19">
       <c r="A11" s="12"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1777,7 +1770,6 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
         <v>35</v>
@@ -1796,7 +1788,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" ht="32.4" spans="1:19">
+    <row r="12" ht="36" spans="1:19">
       <c r="A12" s="12"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1808,7 +1800,6 @@
         <v>39</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12"/>
       <c r="I12" s="20">
         <v>1</v>
       </c>
@@ -1839,7 +1830,6 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="21" t="s">
@@ -1868,7 +1858,6 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
         <v>46</v>
@@ -1881,7 +1870,7 @@
       </c>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" ht="21.6" spans="1:13">
+    <row r="15" ht="24" spans="1:13">
       <c r="A15" s="8"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1891,7 +1880,6 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
         <v>46</v>
@@ -1914,7 +1902,6 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
         <v>53</v>
@@ -1927,7 +1914,7 @@
       </c>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" ht="21.6" spans="1:13">
+    <row r="17" ht="24" spans="1:13">
       <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1937,7 +1924,6 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
         <v>57</v>
@@ -1946,7 +1932,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" ht="21.6" spans="1:13">
+    <row r="18" ht="24" spans="1:13">
       <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1956,7 +1942,6 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18"/>
       <c r="I18" s="11"/>
       <c r="J18" s="25">
         <v>44089</v>
@@ -1969,7 +1954,7 @@
       </c>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" ht="21.6" spans="1:13">
+    <row r="19" spans="1:13">
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1979,7 +1964,6 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19"/>
       <c r="I19" s="7"/>
       <c r="J19" s="26">
         <v>44074</v>
@@ -2000,7 +1984,6 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20"/>
       <c r="I20" s="7"/>
       <c r="J20" s="26">
         <v>44022</v>
@@ -2021,7 +2004,6 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21"/>
       <c r="I21" s="11"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -2040,7 +2022,6 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22"/>
       <c r="I22" s="11"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
@@ -2049,7 +2030,7 @@
       </c>
       <c r="M22" s="19"/>
     </row>
-    <row r="23" ht="32.4" spans="1:13">
+    <row r="23" ht="36" spans="1:13">
       <c r="A23" s="8"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2059,7 +2040,6 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="21" t="s">
@@ -2070,7 +2050,7 @@
       </c>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" ht="21.6" spans="1:19">
+    <row r="24" ht="24" spans="1:19">
       <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2080,7 +2060,6 @@
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="6" t="s">
@@ -2095,7 +2074,7 @@
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" ht="21.6" spans="1:13">
+    <row r="25" ht="24" spans="1:13">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -2111,7 +2090,6 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="21" t="s">
@@ -2122,7 +2100,7 @@
       </c>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" ht="21.6" spans="1:13">
+    <row r="26" spans="1:13">
       <c r="A26" s="8"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2132,7 +2110,6 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="21" t="s">
@@ -2153,7 +2130,6 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="21" t="s">
@@ -2170,7 +2146,7 @@
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
     </row>
-    <row r="28" ht="32.4" spans="1:13">
+    <row r="28" ht="36" spans="1:13">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -2186,7 +2162,6 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
         <v>40</v>
@@ -2207,7 +2182,6 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="21" t="s">
@@ -2228,7 +2202,6 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="22"/>
@@ -2253,7 +2226,6 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -2270,14 +2242,13 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" ht="21.6" spans="1:13">
+    <row r="33" ht="24" spans="1:13">
       <c r="A33" s="3">
         <v>6</v>
       </c>
@@ -2293,7 +2264,6 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="21" t="s">
@@ -2314,14 +2284,13 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="21"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
-    <row r="35" ht="43.2" spans="1:19">
+    <row r="35" ht="48" spans="1:19">
       <c r="A35" s="8"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2331,7 +2300,6 @@
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
         <v>102</v>
@@ -2368,7 +2336,6 @@
         <v>2020.7</v>
       </c>
       <c r="G36" s="16"/>
-      <c r="H36"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="27"/>
@@ -2387,7 +2354,6 @@
         <v>2020.7</v>
       </c>
       <c r="G37" s="16"/>
-      <c r="H37"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="27"/>
